--- a/data/trans_orig/Q25B01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q25B01-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>19.77680935706205</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27.87508585618462</v>
+        <v>27.87508585618463</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>11.60596116505014</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>23.34635090818023</v>
+        <v>23.35964395810929</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>17.47954607381911</v>
+        <v>17.69790425308014</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.48557417516104</v>
+        <v>16.82993967506303</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23.5742572889424</v>
+        <v>24.04261135119593</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>8.440062269248946</v>
+        <v>8.342611131108196</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.413599659465367</v>
+        <v>9.565639579697017</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>9.959425648132125</v>
+        <v>9.907230119754797</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>12.6392692120778</v>
+        <v>12.76296114440953</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.92856035763199</v>
+        <v>18.99076441622033</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>15.68084401414868</v>
+        <v>15.59197434878523</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14.73369423851735</v>
+        <v>14.71874281651299</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>22.14339475405923</v>
+        <v>22.19045825365097</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>30.8070676939119</v>
+        <v>30.9666257356215</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>26.60137765158866</v>
+        <v>27.42535449494773</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.68342980928697</v>
+        <v>23.76873499853992</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.71129143802218</v>
+        <v>32.93564932738104</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>14.79342119173082</v>
+        <v>15.29088210464209</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.32537274444559</v>
+        <v>17.21341247552953</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>15.89781501830091</v>
+        <v>15.8816692610878</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>22.010175005697</v>
+        <v>22.24630618652248</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>25.60140093332272</v>
+        <v>25.84468389291682</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>22.68872872524765</v>
+        <v>22.31080041128342</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19.77012289304168</v>
+        <v>19.78156537992024</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>29.6885887178729</v>
+        <v>29.80056363659444</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>19.44163544297895</v>
+        <v>19.48268332181073</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>20.74102584140708</v>
+        <v>20.66781861383232</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>22.81194024635428</v>
+        <v>22.92395445906158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15.4921660046761</v>
+        <v>15.46364265444884</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>10.64949101113553</v>
+        <v>10.81099392736968</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>10.86408047950428</v>
+        <v>10.67084400855334</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>10.74112243882604</v>
+        <v>10.8358499785956</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>9.161755566330354</v>
+        <v>9.076880178374735</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>17.95447687690138</v>
+        <v>18.06864977431401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.84884026598866</v>
+        <v>17.79368615173815</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19.38338214714279</v>
+        <v>19.53982059508284</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>13.62788011826027</v>
+        <v>13.62896633298825</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>24.1434241913612</v>
+        <v>24.28661827126029</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>26.20219824571494</v>
+        <v>26.43692199728255</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29.33448772742056</v>
+        <v>29.81963468347509</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.98073718238735</v>
+        <v>20.56320972058792</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>16.4484602226229</v>
+        <v>17.32386479844354</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.92643885657089</v>
+        <v>17.94956332414499</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>17.36342099824648</v>
+        <v>17.72591578230232</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>12.86979284295518</v>
+        <v>12.82594801679191</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>22.25820249413444</v>
+        <v>21.99830260008168</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>22.61316683502191</v>
+        <v>22.36865651167016</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24.9983776033727</v>
+        <v>25.25484381166143</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>17.46786390740944</v>
+        <v>17.36694839414092</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>18.74112406024892</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19.63349380838405</v>
+        <v>19.63349380838406</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>12.71001280749668</v>
@@ -953,7 +953,7 @@
         <v>10.81041946152952</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>12.61874874531897</v>
+        <v>12.61874874531898</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>20.33297407810145</v>
@@ -965,7 +965,7 @@
         <v>16.31996403395069</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>16.64249739296297</v>
+        <v>16.64249739296296</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>18.67253615280904</v>
+        <v>19.1074449126772</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>21.72240992339475</v>
+        <v>21.70912003717993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.2657273363976</v>
+        <v>16.71505512293477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17.15595628814797</v>
+        <v>17.18706467795058</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>8.56595991423908</v>
+        <v>8.408766998174748</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.74317639933735</v>
+        <v>11.66747640282406</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>8.910246804864324</v>
+        <v>9.096723055911919</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>10.57952724530666</v>
+        <v>10.48328270997348</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.6189211245654</v>
+        <v>17.59633697353647</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19.43622409505083</v>
+        <v>19.48777685194977</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14.56942052901679</v>
+        <v>14.60257413374125</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>14.73054046454928</v>
+        <v>14.96775311944227</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>25.79252903404576</v>
+        <v>26.32938002875358</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>27.54000342856321</v>
+        <v>27.73750843960243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.27851472098021</v>
+        <v>21.56387379274097</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.41713470529003</v>
+        <v>22.63251550646148</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>17.95803898003162</v>
+        <v>17.31888586070326</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.29308216009685</v>
+        <v>22.62447629722287</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>13.33845325090349</v>
+        <v>13.23302270680124</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>15.1297222436954</v>
+        <v>15.06695369546073</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>23.89980018850746</v>
+        <v>24.04401212213676</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>24.66762932844168</v>
+        <v>24.64296993334796</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18.5933103614492</v>
+        <v>18.34884839386842</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>18.40514782365316</v>
+        <v>18.64895662855964</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>19.7760948410047</v>
+        <v>19.74683390177399</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>20.50134597737941</v>
+        <v>20.63867497736293</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19.15778683803334</v>
+        <v>19.01212834465831</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.15484050856681</v>
+        <v>17.31209160597103</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>11.90700968453783</v>
+        <v>12.05214687802465</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>11.16061297929744</v>
+        <v>10.99131844549936</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>10.06588784265872</v>
+        <v>9.989334451522655</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>9.415916312731122</v>
+        <v>9.417654942968024</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.60416850398436</v>
+        <v>17.79395538821643</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>18.19548067266147</v>
+        <v>18.2302821558204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16.65345154932446</v>
+        <v>16.66486338885683</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>14.88592075780877</v>
+        <v>14.6902481599029</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>24.55733898867064</v>
+        <v>24.49180434900633</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>27.13200529924411</v>
+        <v>27.38365789106813</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>25.83797179524695</v>
+        <v>26.24334250882555</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22.42064290685191</v>
+        <v>22.61658722536497</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>19.06211669869868</v>
+        <v>19.67534871293421</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>16.65499368034234</v>
+        <v>16.94284668581482</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>16.68474973617288</v>
+        <v>16.5610071185447</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>13.01937284734749</v>
+        <v>13.11255896945436</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>21.75288458534544</v>
+        <v>21.79829539801147</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23.62593630712777</v>
+        <v>23.51791772356755</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>21.94439453530129</v>
+        <v>21.92037036096265</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.45647898690155</v>
+        <v>18.58368631437189</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>18.51046934084798</v>
+        <v>18.49089751772655</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.37201376523774</v>
+        <v>20.70764762468007</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21.83524878423385</v>
+        <v>21.30608524704686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18.37565562811605</v>
+        <v>18.2537595860237</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.927343659381882</v>
+        <v>8.04325370659949</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.825541050353062</v>
+        <v>8.907884197789024</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>11.58482500449093</v>
+        <v>11.28440081175194</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.27175058301624</v>
+        <v>11.30455407559044</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.51089321525414</v>
+        <v>14.56789153171551</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16.81463691075571</v>
+        <v>17.05773605495494</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18.80448832481468</v>
+        <v>18.83192719521626</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.28120781785073</v>
+        <v>16.54940829180493</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>27.20101289911932</v>
+        <v>27.15698090175968</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>31.05427214606132</v>
+        <v>31.10679756244516</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>31.35084788082541</v>
+        <v>31.4170396882238</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34.9714834686791</v>
+        <v>34.35264647757472</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>14.54146528966174</v>
+        <v>14.82941394733321</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.98174911669355</v>
+        <v>15.98465684913707</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.07074172035143</v>
+        <v>16.86726501371272</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.81124414976782</v>
+        <v>15.95990037701828</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.80375351604923</v>
+        <v>21.35872165080878</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>25.40071003273707</v>
+        <v>25.21981456671417</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26.38753857605263</v>
+        <v>26.08713163424303</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>27.09110303005989</v>
+        <v>27.75544400168864</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>20.5759303458669</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25.39969747397475</v>
+        <v>25.39969747397474</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>13.64459871776124</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>20.01248169264666</v>
+        <v>20.5003268974921</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>20.14081177958911</v>
+        <v>20.45797730194528</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17.26186938777736</v>
+        <v>17.03613275553949</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21.96608909482308</v>
+        <v>21.72320104683085</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>10.70701568938867</v>
+        <v>10.62954922902619</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>10.67167363581949</v>
+        <v>10.54708703736903</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>6.917639795513034</v>
+        <v>6.546889043564702</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>10.37534807995577</v>
+        <v>10.21930337852944</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>18.05521898418843</v>
+        <v>18.17462999663179</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18.49681438456733</v>
+        <v>18.86431131228773</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14.96210367471384</v>
+        <v>14.9297000403694</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>20.05283557185277</v>
+        <v>20.16045300579883</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>26.69822783404424</v>
+        <v>26.83205513825979</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>24.68698668289646</v>
+        <v>25.25630779205135</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>26.21976114907883</v>
+        <v>26.07907043779205</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29.33213443826217</v>
+        <v>28.88637553607879</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>19.22405744128121</v>
+        <v>18.64772221985584</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>16.98893155203079</v>
+        <v>16.90593605613048</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>12.77146526017078</v>
+        <v>12.65440349725174</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>16.79565698066842</v>
+        <v>16.74552073049266</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>23.97786933729115</v>
+        <v>23.9464314259557</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>22.86691063332484</v>
+        <v>22.7701450032193</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21.81980695657519</v>
+        <v>21.76438004432411</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>26.63364316480399</v>
+        <v>26.24994883310187</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>21.67800375837801</v>
+        <v>21.3697782414681</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>22.03608652832853</v>
+        <v>22.00686586204603</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>18.03497155757312</v>
+        <v>18.23953493295323</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16.59930742895973</v>
+        <v>16.31708077454624</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>12.40028083857121</v>
+        <v>12.51125578586646</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.7978056244499</v>
+        <v>11.893378885068</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>12.86649904871249</v>
+        <v>12.8141127496702</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>10.28129909409149</v>
+        <v>10.17145267846531</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>19.54331062597701</v>
+        <v>19.58482171635903</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18.82265065515436</v>
+        <v>18.70418801831453</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16.52874164480361</v>
+        <v>16.67988734574811</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>14.22107109218531</v>
+        <v>14.35801799416168</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>26.69895497263373</v>
+        <v>26.35335642587886</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>26.9326806397028</v>
+        <v>26.88362466147375</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>23.39919431860968</v>
+        <v>23.29264298954522</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>21.49929053764625</v>
+        <v>21.45170899729897</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>19.36427877904693</v>
+        <v>19.89089084024456</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.24493509566214</v>
+        <v>15.21449407177187</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>16.64793929676771</v>
+        <v>16.57836463671839</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>13.77481982651405</v>
+        <v>13.50939362977309</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>24.08184933235633</v>
+        <v>23.8436213754759</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22.40646893219105</v>
+        <v>22.34206974101683</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>20.15061052617115</v>
+        <v>20.46232814347224</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>17.59116377690301</v>
+        <v>17.68704767020895</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>18.5157474941178</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>19.46599605869663</v>
+        <v>19.46599605869664</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>18.76324990007453</v>
+        <v>18.85579122007382</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>19.08205533526095</v>
+        <v>19.22224867342798</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>18.71714370676582</v>
+        <v>18.78509642134612</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19.83157909924119</v>
+        <v>19.75492289779379</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>9.651503740516951</v>
+        <v>9.446223376249719</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>10.68748505362071</v>
+        <v>10.78940215242002</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>12.0685104772872</v>
+        <v>12.12467157280695</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>13.42241025600982</v>
+        <v>13.61513070420447</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>15.83998390335391</v>
+        <v>15.73282247425585</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>16.6147091487652</v>
+        <v>16.597221253641</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16.5916671590147</v>
+        <v>16.61021665983904</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>18.30603973569739</v>
+        <v>18.27049566581103</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>23.27828199976773</v>
+        <v>23.44531343933954</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>24.86297237075104</v>
+        <v>25.19828727336807</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>23.94972810699908</v>
+        <v>23.8545771668679</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>22.1790148064526</v>
+        <v>22.08167821246916</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>13.26830099628352</v>
+        <v>13.1862076066057</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>14.61250946288055</v>
+        <v>15.02056094077965</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>17.09494292024303</v>
+        <v>17.46883138740716</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>18.96755187643804</v>
+        <v>18.79525451111839</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>19.28790366374141</v>
+        <v>19.24834708822169</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>21.02216166144508</v>
+        <v>20.78833397683221</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>20.7149211197154</v>
+        <v>20.70624410093967</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>20.59784630572754</v>
+        <v>20.61203907915795</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>21.2172424411048</v>
+        <v>21.41289457417686</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>22.07454994726944</v>
+        <v>21.99371966756952</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>20.38443395249116</v>
+        <v>20.46335378456387</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>19.58704997457354</v>
+        <v>19.5900292590095</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>11.59858788713487</v>
+        <v>11.59078314957636</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>12.43753413742431</v>
+        <v>12.42725313662921</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>12.40949625795766</v>
+        <v>12.33810767129846</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>11.47041565613183</v>
+        <v>11.51750740735894</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>18.74413814316164</v>
+        <v>18.74158074499731</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19.24914420616508</v>
+        <v>19.2408168882192</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17.76633395943307</v>
+        <v>17.84661239887019</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>16.9347903798229</v>
+        <v>16.9392520078307</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>23.36552868624295</v>
+        <v>23.47107992882212</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.30099126651498</v>
+        <v>24.24703006013635</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>22.72632639639552</v>
+        <v>22.82103586617465</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21.54754125953756</v>
+        <v>21.65494604548228</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>13.85221239069861</v>
+        <v>13.70280423409532</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.51757531209368</v>
+        <v>14.60007082367444</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>14.50432441461162</v>
+        <v>14.36992166997355</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>13.1933273541332</v>
+        <v>13.19497880367742</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.47459051832728</v>
+        <v>20.42162225816458</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>20.97363725144908</v>
+        <v>20.97506188275799</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19.59409607174818</v>
+        <v>19.59425061144594</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>18.40541582527517</v>
+        <v>18.46113828384447</v>
       </c>
     </row>
     <row r="31">
